--- a/src/bin/xlsx/Example.xlsx
+++ b/src/bin/xlsx/Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thirty-Projects\xlsx2rof\src\bin\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thirty-Projects\TRofMaker\src\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73768DC0-B4E2-4D9C-BD54-C69486979CFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DBF70-3627-4894-850A-3B1BCAEC71C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="规范" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +101,6 @@
   </si>
   <si>
     <t>测试图片.png</t>
-  </si>
-  <si>
-    <t>这是一个长句子</t>
   </si>
   <si>
     <t>表头</t>
@@ -109,6 +117,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +128,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,6 +147,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,6 +158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,10 +203,6 @@
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -214,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,6 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,6 +249,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,6 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,18 +350,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -493,6 +508,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Language"/>
+      <sheetName val="规范"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>中文</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Chinese</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>int32</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>金币</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>这是一个长句子</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,7 +857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +868,7 @@
     <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31" style="3" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
@@ -825,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -854,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -880,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -905,11 +976,12 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>43</v>
+      <c r="H4" s="15" t="str">
+        <f>VLOOKUP(G:G,[1]Language!$A:$B,2,FALSE)</f>
+        <v>金币</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -934,11 +1006,12 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
+      <c r="H5" s="15" t="str">
+        <f>VLOOKUP(G:G,[1]Language!$A:$B,2,FALSE)</f>
+        <v>这是一个长句子</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -964,15 +1037,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -986,10 +1059,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1003,10 +1076,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1032,7 +1105,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1048,7 +1121,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1063,7 +1136,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1077,15 +1150,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1097,18 +1170,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1116,55 +1189,55 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/bin/xlsx/Example.xlsx
+++ b/src/bin/xlsx/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thirty-Projects\TRofMaker\src\bin\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CNSciFi\Program\Tool\TRofMaker\src\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DBF70-3627-4894-850A-3B1BCAEC71C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB84FD-1EC9-4937-A8CF-4B3A1955789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +100,6 @@
     <t>example.png</t>
   </si>
   <si>
-    <t>23532344</t>
-  </si>
-  <si>
     <t>测试图片.png</t>
   </si>
   <si>
@@ -112,15 +112,689 @@
     <t>第二行</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>第三行</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>不导出字段 表头用 50%深灰色 标识 (多用于多语言的备注)</t>
+  </si>
+  <si>
+    <t>强制规则</t>
+  </si>
+  <si>
+    <t>第一列</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>长度不能超过255个字符</t>
+  </si>
+  <si>
+    <t>工作簿名</t>
+  </si>
+  <si>
+    <t>第一个工作簿（标签）名就是导出的表名，不能重复，并且只能放在第一个位置</t>
+  </si>
+  <si>
+    <t>类型7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"k1":1,"k2":"abc"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型解释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数，范围-2147483648~2147483648</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数，范围-9223372036854775808~9223372036854775808</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单精度浮点数，具体范围和程序商量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双精度浮点数，具体范围和程序商量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型，用于json或lua等脚本语言的导出表中，会完整导出文本,对于其他语言会转换成字符串导出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串，不需要使用引号，如果有引号，那么引号也是字符串一部分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int32类型的数组，每个数之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int64类型的数组，每个数之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2,3,4,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>float32类型的数组，每个数之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0,2.0,3.0,4.0,5.0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>float64类型的数组，每个数之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.0,2.0,3.0,4.0,5.0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string类型的数组，每个数之间用英文逗号隔开,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcd,test,testtestsss</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键必须是int32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:abc,2:bca,3:cba</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:test1,b:test2,3:test3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 见"类型解释"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>英文表头</t>
     </r>
     <r>
@@ -134,105 +808,11 @@
       </rPr>
       <t xml:space="preserve"> 大写开头的驼峰命名</t>
     </r>
-  </si>
-  <si>
-    <t>第三行</t>
-  </si>
-  <si>
-    <t>标识</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多语言字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 表头用 标准色浅蓝 标识</t>
-    </r>
-  </si>
-  <si>
-    <t>不导出字段 表头用 50%深灰色 标识 (多用于多语言的备注)</t>
-  </si>
-  <si>
-    <t>强制规则</t>
-  </si>
-  <si>
-    <t>第一列</t>
-  </si>
-  <si>
-    <t>英文表头必须是ID 并且 该列数据类型必须是int32</t>
-  </si>
-  <si>
-    <t>列名</t>
-  </si>
-  <si>
-    <t>长度不能超过255个字符</t>
-  </si>
-  <si>
-    <t>工作簿名</t>
-  </si>
-  <si>
-    <t>第一个工作簿（标签）名就是导出的表名，不能重复，并且只能放在第一个位置</t>
-  </si>
-  <si>
-    <t>类型7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"k1":1,"k2":"abc"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>数据类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6种数据类型（int32 int64 float32 float64 string object）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>中文表头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多语言表头</t>
     </r>
     <r>
       <rPr>
@@ -264,72 +844,488 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这一行</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型解释</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数，范围-2147483648~2147483648</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数，范围-9223372036854775808~9223372036854775808</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>float64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单精度浮点数，具体范围和程序商量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>双精度浮点数，具体范围和程序商量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串，不用在单元格中写引号("")</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>对象类型，用于json或lua等脚本语言的导出表中，会完整导出文本，具体格式和程序商量,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不推荐使用</t>
+      <t>这一行，一般为中文</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>235323.665</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型8</t>
+  </si>
+  <si>
+    <t>类型9</t>
+  </si>
+  <si>
+    <t>类型10</t>
+  </si>
+  <si>
+    <t>类型11</t>
+  </si>
+  <si>
+    <t>类型12</t>
+  </si>
+  <si>
+    <t>类型13</t>
+  </si>
+  <si>
+    <t>类型14</t>
+  </si>
+  <si>
+    <t>类型15</t>
+  </si>
+  <si>
+    <t>类型16</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>52067896789,1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,52067896789,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1,1.2,1.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1,3.2,3.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc,bcd,def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1,test2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1,2:2,3:3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:1,2003:2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:1,b:1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>testkey1:339,testkey2:zhongguoniubi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:1,a1002:998</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:a,1002:1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:a,2:test222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:test,b:icon,1001:1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nnkv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nskv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]snkv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]sskv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nnkv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nskv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]snkv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]sskv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值-数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键必须是int32，值是int32或float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:1,2:1,3:1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串-数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值是int32或float32，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:1,b:2,c:3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言字段 表头用 标准色浅蓝 标识 类型必须是int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">英文表头必须是ID 并且 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该列数据类型必须是int32</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -338,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,14 +1374,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -481,16 +1469,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,27 +1841,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="12.625" style="3"/>
+    <col min="1" max="1" width="7.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -896,13 +1893,40 @@
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -925,10 +1949,37 @@
         <v>12</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -951,17 +2002,44 @@
         <v>13</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+        <v>37</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -970,82 +2048,139 @@
       <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="str">
+      <c r="H4" s="17" t="str">
         <f>VLOOKUP(G:G,[1]Language!$A:$B,2,FALSE)</f>
         <v>金币</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="I4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>21067896789</v>
+      <c r="C5" s="11">
+        <v>52067896789</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="11">
         <v>2</v>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="17" t="str">
         <f>VLOOKUP(G:G,[1]Language!$A:$B,2,FALSE)</f>
         <v>这是一个长句子</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>43</v>
+      <c r="I5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E5 D4:D5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="110.625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1059,10 +2194,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1076,10 +2211,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1105,7 +2240,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1121,7 +2256,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1136,7 +2271,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1150,15 +2285,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1170,79 +2305,151 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="17" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/bin/xlsx/Example.xlsx
+++ b/src/bin/xlsx/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CNSciFi\Program\Tool\TRofMaker\src\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB84FD-1EC9-4937-A8CF-4B3A1955789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF27C10-CBE0-499E-BC10-9DE13AD06A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -496,288 +496,6 @@
   </si>
   <si>
     <r>
-      <t>string类型的数组，每个数之间用英文逗号隔开,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd,test,testtestsss</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数值-字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键必须是int32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1:abc,2:bca,3:cba</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字符串-字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a:test1,b:test2,3:test3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>数据类型</t>
     </r>
     <r>
@@ -871,15 +589,6 @@
     <t>类型13</t>
   </si>
   <si>
-    <t>类型14</t>
-  </si>
-  <si>
-    <t>类型15</t>
-  </si>
-  <si>
-    <t>类型16</t>
-  </si>
-  <si>
     <t>Value8</t>
   </si>
   <si>
@@ -896,15 +605,6 @@
   </si>
   <si>
     <t>Value13</t>
-  </si>
-  <si>
-    <t>Value14</t>
-  </si>
-  <si>
-    <t>Value15</t>
-  </si>
-  <si>
-    <t>Value16</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>
@@ -947,30 +647,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a:1,b:1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>testkey1:339,testkey2:zhongguoniubi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001:1,a1002:998</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001:a,1002:1002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:a,2:test222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001:test,b:icon,1001:1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[]int32</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1031,18 +707,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[]nskv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]snkv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]sskv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1176,6 +840,160 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>多语言字段 表头用 标准色浅蓝 标识 类型必须是int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">英文表头必须是ID 并且 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该列数据类型必须是int32</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键必须是int32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1:abc,2:bca,3:cba </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1277,17 +1095,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -1304,28 +1111,160 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>a:1,b:2,c:3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言字段 表头用 标准色浅蓝 标识 类型必须是int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">英文表头必须是ID 并且 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>该列数据类型必须是int32</t>
+      <t xml:space="preserve">a:1,b:2,c:3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a:test1,b:test2,3:test3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string类型的数组，每个数之间用英文逗号隔开 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcd,test,testtestsss。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内,逗号是分隔符，暂无法转义</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1380,7 +1319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1396,6 +1335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1424,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,11 +1789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1864,13 +1812,10 @@
     <col min="12" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1899,34 +1844,25 @@
         <v>34</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1952,34 +1888,25 @@
         <v>35</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2005,34 +1932,25 @@
         <v>37</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2062,34 +1980,25 @@
         <v>38</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2103,7 +2012,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
@@ -2119,31 +2028,22 @@
         <v>39</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2158,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2180,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2197,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2214,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2256,7 +2156,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2293,7 +2193,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2335,7 +2235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>45</v>
       </c>
@@ -2343,7 +2243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +2251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -2359,7 +2259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
@@ -2375,76 +2275,86 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="C30" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="C31" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/bin/xlsx/Example.xlsx
+++ b/src/bin/xlsx/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CNSciFi\Program\Tool\TRofMaker\src\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF27C10-CBE0-499E-BC10-9DE13AD06A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F45E19-41A7-47B6-9501-753C272563B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,11 +631,629 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>abc,bcd,def</t>
+    <t>[]int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nnkv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nskv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]snkv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]sskv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test1,test2</t>
+    <t>[]int64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]nnkv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值-数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键必须是int32，值是int32或float32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:1,2:1,3:1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言字段 表头用 标准色浅蓝 标识 类型必须是int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">英文表头必须是ID 并且 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该列数据类型必须是int32</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键必须是int32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1:abc,2:bca,3:cba </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串-数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值是int32或float32，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a:1,b:2,c:3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串-字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键值对数组，键值之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文冒号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间隔，每个键值对之间用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a:test1,b:test2,3:test3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string类型的数组，每个数之间用英文逗号隔开 例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcd,test,testtestsss。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空格会算入元素内,逗号是分隔符，暂无法转义</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tessaft1,test2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -643,630 +1261,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1001:1,2003:2</t>
+    <t>1001:6510001,2003:90054001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]float32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]float64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]nnkv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]nskv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]snkv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]sskv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
+    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]float32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]float64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]nnkv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数值-数值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键必须是int32，值是int32或float32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1:1,2:1,3:1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言字段 表头用 标准色浅蓝 标识 类型必须是int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">英文表头必须是ID 并且 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>该列数据类型必须是int32</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数值-字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键必须是int32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1:abc,2:bca,3:cba </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空格会算入元素内</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字符串-数值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值是int32或float32，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a:1,b:2,c:3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空格会算入元素内</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字符串-字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 键值对数组，键值之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文冒号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间隔，每个键值对之间用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英文逗号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a:test1,b:test2,3:test3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空格会算入元素内</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>string类型的数组，每个数之间用英文逗号隔开 例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abcd,test,testtestsss。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空格会算入元素内,逗号是分隔符，暂无法转义</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1793,7 +1793,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1810,8 +1810,8 @@
     <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="3" customWidth="1"/>
+    <col min="15" max="15" width="27.875" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1932,22 +1932,22 @@
         <v>37</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1992,10 +1992,10 @@
         <v>77</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2040,10 +2040,10 @@
         <v>78</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2156,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2193,7 +2193,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>53</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>54</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>55</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>56</v>
@@ -2309,52 +2309,52 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
